--- a/data/fact_data/parbhani/Parbhani_Sec_Jun_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_Jun_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0386110-AAAE-484E-A3A0-5C17DC544925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF17B71-9E14-EE4B-82A6-D347E7F3CE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -290,10 +287,13 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>Jun</t>
   </si>
   <si>
-    <t>Jun</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,31 +1883,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1928,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1956,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1986,13 +1984,13 @@
         <v>2821</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2016,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2046,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2076,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2106,13 +2104,13 @@
         <v>1936</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2136,13 +2134,13 @@
         <v>4617</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2150,7 +2148,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2162,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2176,7 +2174,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2188,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2218,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2248,13 +2246,13 @@
         <v>20618</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2278,13 +2276,13 @@
         <v>3432</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2292,7 +2290,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -2308,13 +2306,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -2335,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2349,7 +2347,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>310</v>
@@ -2365,13 +2363,13 @@
         <v>21700</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2379,7 +2377,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>240</v>
@@ -2395,13 +2393,13 @@
         <v>11760</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2409,7 +2407,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2421,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2435,7 +2433,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>14</v>
@@ -2451,13 +2449,13 @@
         <v>5586</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2465,7 +2463,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2481,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2495,7 +2493,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2504,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2534,13 +2532,13 @@
         <v>12760</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2548,7 +2546,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2564,13 +2562,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2594,13 +2592,13 @@
         <v>4080</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2624,13 +2622,13 @@
         <v>5760</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2638,7 +2636,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2650,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2664,7 +2662,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -2680,13 +2678,13 @@
         <v>860</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2694,7 +2692,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -2710,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2724,7 +2722,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
@@ -2740,13 +2738,13 @@
         <v>1076</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2754,7 +2752,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2770,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2784,7 +2782,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2800,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2814,7 +2812,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2830,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2860,13 +2858,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2874,7 +2872,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -2887,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2913,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2943,13 +2941,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2973,13 +2971,13 @@
         <v>4775</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2987,7 +2985,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -3003,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3033,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3063,13 +3061,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3077,7 +3075,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>5</v>
@@ -3093,13 +3091,13 @@
         <v>6350</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3107,7 +3105,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -3123,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3137,7 +3135,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -3153,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3167,7 +3165,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
@@ -3180,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3194,7 +3192,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3203,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3233,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3263,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3293,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3307,7 +3305,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -3320,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3334,7 +3332,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3346,13 +3344,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3360,7 +3358,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -3374,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3388,7 +3386,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3400,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3414,7 +3412,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>48</v>
@@ -3428,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3442,7 +3440,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3454,13 +3452,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3468,7 +3466,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -3482,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3496,7 +3494,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3508,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3522,7 +3520,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3538,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3552,7 +3550,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -3568,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3582,7 +3580,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -3598,13 +3596,13 @@
         <v>900</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3612,7 +3610,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3628,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3642,7 +3640,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3654,13 +3652,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3668,7 +3666,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3676,13 +3674,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3690,7 +3688,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3702,13 +3700,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3716,7 +3714,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3728,13 +3726,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3742,7 +3740,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -3751,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3765,7 +3763,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3773,13 +3771,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3787,7 +3785,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>6</v>
@@ -3799,13 +3797,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3813,7 +3811,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3821,13 +3819,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3835,7 +3833,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -3847,13 +3845,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3861,7 +3859,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>12</v>
@@ -3870,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3896,9 +3894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3908,31 +3904,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3953,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3983,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4013,13 +4009,13 @@
         <v>455</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4039,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4065,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4091,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4121,13 +4117,13 @@
         <v>440</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4151,13 +4147,13 @@
         <v>969</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4165,7 +4161,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4177,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4191,7 +4187,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4203,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4229,13 +4225,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4259,13 +4255,13 @@
         <v>5978</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4285,13 +4281,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4299,7 +4295,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4311,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4325,7 +4321,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4334,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4348,7 +4344,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>81</v>
@@ -4364,13 +4360,13 @@
         <v>8540</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4378,7 +4374,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>64</v>
@@ -4394,13 +4390,13 @@
         <v>5880</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4408,7 +4404,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4420,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4434,7 +4430,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4446,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4460,7 +4456,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4472,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4486,7 +4482,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4495,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4525,13 +4521,13 @@
         <v>2552</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4539,7 +4535,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4555,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4585,13 +4581,13 @@
         <v>720</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4615,13 +4611,13 @@
         <v>4800</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4629,7 +4625,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4641,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4655,7 +4651,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4671,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4685,7 +4681,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4699,13 +4695,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4713,7 +4709,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -4729,13 +4725,13 @@
         <v>807</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4743,7 +4739,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4759,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4773,7 +4769,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4789,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4803,7 +4799,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4819,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4849,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4863,7 +4859,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4876,13 +4872,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4902,13 +4898,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4932,13 +4928,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4958,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4972,7 +4968,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4984,13 +4980,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5010,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5036,13 +5032,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5050,7 +5046,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5062,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5076,7 +5072,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5092,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5106,7 +5102,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5122,13 +5118,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5136,7 +5132,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -5149,13 +5145,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5163,7 +5159,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5172,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5198,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5224,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5250,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5264,7 +5260,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -5277,13 +5273,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5291,7 +5287,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5303,13 +5299,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5317,7 +5313,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -5331,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5345,7 +5341,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5357,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5371,7 +5367,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5381,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5395,7 +5391,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5407,13 +5403,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5421,7 +5417,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5431,13 +5427,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5445,7 +5441,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5457,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5471,7 +5467,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5483,13 +5479,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5497,7 +5493,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5509,13 +5505,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5523,7 +5519,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5535,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5549,7 +5545,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5561,13 +5557,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5575,7 +5571,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5583,13 +5579,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5597,7 +5593,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5605,13 +5601,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5619,7 +5615,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5627,13 +5623,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5641,7 +5637,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5649,13 +5645,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5663,18 +5659,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5682,7 +5678,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5690,13 +5686,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5704,7 +5700,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>16</v>
@@ -5716,13 +5712,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5730,7 +5726,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5738,13 +5734,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5752,7 +5748,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>6</v>
@@ -5764,13 +5760,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5778,7 +5774,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -5787,13 +5783,13 @@
         <v>1</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5813,9 +5809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5825,31 +5819,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5866,13 +5860,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5892,13 +5886,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5922,13 +5916,13 @@
         <v>6916</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5948,13 +5942,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5974,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -6000,13 +5994,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6030,13 +6024,13 @@
         <v>880</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6060,13 +6054,13 @@
         <v>4845</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6074,7 +6068,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6090,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6104,7 +6098,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6120,13 +6114,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6146,13 +6140,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6176,13 +6170,13 @@
         <v>6832</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6206,13 +6200,13 @@
         <v>416</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6220,7 +6214,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -6236,13 +6230,13 @@
         <v>2009</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6250,7 +6244,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -6263,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6277,7 +6271,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>269</v>
@@ -6293,13 +6287,13 @@
         <v>15610</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6307,7 +6301,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>227</v>
@@ -6323,13 +6317,13 @@
         <v>4067</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6337,7 +6331,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6353,13 +6347,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6367,7 +6361,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6383,13 +6377,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6397,7 +6391,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -6413,13 +6407,13 @@
         <v>6809</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6427,7 +6421,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6436,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6466,13 +6460,13 @@
         <v>1914</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6480,7 +6474,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
@@ -6496,13 +6490,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6526,13 +6520,13 @@
         <v>1200</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6556,13 +6550,13 @@
         <v>2880</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6570,7 +6564,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6582,13 +6576,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6596,7 +6590,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6612,13 +6606,13 @@
         <v>1290</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6626,7 +6620,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6642,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6656,7 +6650,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -6672,13 +6666,13 @@
         <v>1883</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6686,7 +6680,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -6702,13 +6696,13 @@
         <v>1266</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6716,7 +6710,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -6732,13 +6726,13 @@
         <v>2367</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6746,7 +6740,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -6762,13 +6756,13 @@
         <v>4325</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6792,13 +6786,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6806,7 +6800,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -6819,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6845,13 +6839,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6875,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6905,13 +6899,13 @@
         <v>955</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6919,7 +6913,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -6935,13 +6929,13 @@
         <v>672</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6965,13 +6959,13 @@
         <v>5148</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -6995,13 +6989,13 @@
         <v>2716</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7009,7 +7003,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -7025,13 +7019,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7039,7 +7033,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
@@ -7055,13 +7049,13 @@
         <v>3552</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7069,7 +7063,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -7085,13 +7079,13 @@
         <v>755</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7099,7 +7093,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -7112,13 +7106,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7126,7 +7120,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7135,13 +7129,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7161,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7191,13 +7185,13 @@
         <v>1099</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7221,13 +7215,13 @@
         <v>892</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7235,7 +7229,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -7248,13 +7242,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7262,7 +7256,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7274,13 +7268,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7288,7 +7282,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -7302,13 +7296,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7316,7 +7310,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -7328,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7342,7 +7336,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -7356,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7370,7 +7364,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7382,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7396,7 +7390,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>5</v>
@@ -7410,13 +7404,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7424,7 +7418,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -7436,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7450,7 +7444,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7466,13 +7460,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7480,7 +7474,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7496,13 +7490,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7510,7 +7504,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7526,13 +7520,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7540,7 +7534,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7556,13 +7550,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7570,7 +7564,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -7582,13 +7576,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7596,7 +7590,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7604,13 +7598,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7618,7 +7612,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7630,13 +7624,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7644,7 +7638,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7656,13 +7650,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7670,7 +7664,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -7679,13 +7673,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7693,7 +7687,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7701,13 +7695,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7715,7 +7709,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
@@ -7727,13 +7721,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7741,7 +7735,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7753,13 +7747,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7767,7 +7761,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>4</v>
@@ -7779,13 +7773,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7793,7 +7787,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>8</v>
@@ -7802,13 +7796,13 @@
         <v>4</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7828,9 +7822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7839,31 +7831,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7880,13 +7872,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7906,13 +7898,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7936,13 +7928,13 @@
         <v>3276</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7962,13 +7954,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -7992,13 +7984,13 @@
         <v>130</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8018,13 +8010,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8048,13 +8040,13 @@
         <v>1056</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8078,13 +8070,13 @@
         <v>171</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8092,7 +8084,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8104,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8118,7 +8110,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8130,13 +8122,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8160,13 +8152,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8190,13 +8182,13 @@
         <v>4819</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8220,13 +8212,13 @@
         <v>3744</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8234,7 +8226,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
@@ -8250,13 +8242,13 @@
         <v>49</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8264,7 +8256,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -8277,13 +8269,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8291,7 +8283,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>215</v>
@@ -8307,13 +8299,13 @@
         <v>12180</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8321,7 +8313,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>143</v>
@@ -8337,13 +8329,13 @@
         <v>2695</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8351,7 +8343,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8363,13 +8355,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8377,7 +8369,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -8393,13 +8385,13 @@
         <v>20748</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8407,7 +8399,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
@@ -8423,13 +8415,13 @@
         <v>6190</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8437,7 +8429,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8446,13 +8438,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8476,13 +8468,13 @@
         <v>11484</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8490,7 +8482,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -8506,13 +8498,13 @@
         <v>68</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8536,13 +8528,13 @@
         <v>1440</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8566,13 +8558,13 @@
         <v>3360</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8580,7 +8572,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8592,13 +8584,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8606,7 +8598,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8622,13 +8614,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8636,7 +8628,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -8652,13 +8644,13 @@
         <v>2880</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8666,7 +8658,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -8682,13 +8674,13 @@
         <v>1345</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8696,7 +8688,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -8712,13 +8704,13 @@
         <v>1266</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8726,7 +8718,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -8742,13 +8734,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8756,7 +8748,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
@@ -8772,13 +8764,13 @@
         <v>865</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8802,13 +8794,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8816,7 +8808,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -8829,13 +8821,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8855,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8885,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8915,13 +8907,13 @@
         <v>955</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8929,7 +8921,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8945,13 +8937,13 @@
         <v>672</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8975,13 +8967,13 @@
         <v>6435</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -9001,13 +8993,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9015,7 +9007,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -9027,13 +9019,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9041,7 +9033,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -9057,13 +9049,13 @@
         <v>7104</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9071,7 +9063,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9087,13 +9079,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9101,7 +9093,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -9114,13 +9106,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9128,7 +9120,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9137,13 +9129,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9163,13 +9155,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9193,13 +9185,13 @@
         <v>471</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9223,13 +9215,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9237,7 +9229,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -9250,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9264,7 +9256,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -9276,13 +9268,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9290,7 +9282,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -9304,13 +9296,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9318,7 +9310,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9330,13 +9322,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9344,7 +9336,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>3</v>
@@ -9358,13 +9350,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9372,7 +9364,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -9384,13 +9376,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9398,7 +9390,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -9412,13 +9404,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9426,7 +9418,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9438,13 +9430,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9452,7 +9444,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9464,13 +9456,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9478,7 +9470,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9490,13 +9482,13 @@
         <v>896</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9504,7 +9496,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9516,13 +9508,13 @@
         <v>2250</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9530,7 +9522,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9542,13 +9534,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9556,7 +9548,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9564,13 +9556,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9578,7 +9570,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9586,13 +9578,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9600,7 +9592,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9608,13 +9600,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9622,7 +9614,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9630,13 +9622,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9644,18 +9636,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9663,7 +9655,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9671,13 +9663,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9685,7 +9677,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
@@ -9697,13 +9689,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9711,7 +9703,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9719,13 +9711,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9733,7 +9725,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>4</v>
@@ -9745,13 +9737,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9759,7 +9751,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>6</v>
@@ -9768,13 +9760,13 @@
         <v>14</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9794,9 +9786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -9806,31 +9796,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9850,10 +9840,10 @@
         <v>84</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9876,10 +9866,10 @@
         <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9906,10 +9896,10 @@
         <v>84</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9932,10 +9922,10 @@
         <v>84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9958,10 +9948,10 @@
         <v>84</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -9984,10 +9974,10 @@
         <v>84</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10010,10 +10000,10 @@
         <v>84</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10036,10 +10026,10 @@
         <v>84</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10047,7 +10037,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10062,10 +10052,10 @@
         <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10073,7 +10063,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10088,10 +10078,10 @@
         <v>84</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10114,10 +10104,10 @@
         <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10144,10 +10134,10 @@
         <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10170,10 +10160,10 @@
         <v>84</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10181,7 +10171,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10196,10 +10186,10 @@
         <v>84</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10207,7 +10197,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10219,10 +10209,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10230,7 +10220,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -10249,10 +10239,10 @@
         <v>84</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10260,7 +10250,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10275,10 +10265,10 @@
         <v>84</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10286,7 +10276,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10301,10 +10291,10 @@
         <v>84</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10312,7 +10302,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10327,10 +10317,10 @@
         <v>84</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10338,7 +10328,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10353,10 +10343,10 @@
         <v>84</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10364,7 +10354,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10376,10 +10366,10 @@
         <v>84</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10404,10 +10394,10 @@
         <v>84</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10415,7 +10405,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -10434,10 +10424,10 @@
         <v>84</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10464,10 +10454,10 @@
         <v>84</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10494,10 +10484,10 @@
         <v>84</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10505,7 +10495,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10520,10 +10510,10 @@
         <v>84</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10531,7 +10521,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10546,10 +10536,10 @@
         <v>84</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10557,7 +10547,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10572,10 +10562,10 @@
         <v>84</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10583,7 +10573,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10598,10 +10588,10 @@
         <v>84</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10609,7 +10599,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10624,10 +10614,10 @@
         <v>84</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10635,7 +10625,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10650,10 +10640,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10661,7 +10651,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10676,10 +10666,10 @@
         <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10702,10 +10692,10 @@
         <v>84</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10713,7 +10703,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10725,10 +10715,10 @@
         <v>84</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10751,10 +10741,10 @@
         <v>84</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10777,10 +10767,10 @@
         <v>84</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10803,10 +10793,10 @@
         <v>84</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10814,7 +10804,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10833,10 +10823,10 @@
         <v>84</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10859,10 +10849,10 @@
         <v>84</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10885,10 +10875,10 @@
         <v>84</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10896,7 +10886,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10911,10 +10901,10 @@
         <v>84</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10922,7 +10912,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10937,10 +10927,10 @@
         <v>84</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -10948,7 +10938,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10963,10 +10953,10 @@
         <v>84</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -10974,7 +10964,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -10986,10 +10976,10 @@
         <v>84</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -10997,7 +10987,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11009,10 +10999,10 @@
         <v>84</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11035,10 +11025,10 @@
         <v>84</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11061,10 +11051,10 @@
         <v>84</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11087,10 +11077,10 @@
         <v>84</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11098,7 +11088,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11110,10 +11100,10 @@
         <v>84</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11121,7 +11111,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11136,10 +11126,10 @@
         <v>84</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11147,7 +11137,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11160,10 +11150,10 @@
         <v>84</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11171,7 +11161,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11186,10 +11176,10 @@
         <v>84</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11197,7 +11187,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11210,10 +11200,10 @@
         <v>84</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11221,7 +11211,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11236,10 +11226,10 @@
         <v>84</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11247,7 +11237,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11260,10 +11250,10 @@
         <v>84</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11271,7 +11261,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11286,10 +11276,10 @@
         <v>84</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11297,7 +11287,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11312,10 +11302,10 @@
         <v>84</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11323,7 +11313,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11338,10 +11328,10 @@
         <v>84</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11349,7 +11339,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11364,10 +11354,10 @@
         <v>84</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11375,7 +11365,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11390,10 +11380,10 @@
         <v>84</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11401,7 +11391,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11412,10 +11402,10 @@
         <v>84</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11423,7 +11413,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11434,10 +11424,10 @@
         <v>84</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11445,7 +11435,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11456,10 +11446,10 @@
         <v>84</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11467,7 +11457,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11478,10 +11468,10 @@
         <v>84</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11489,7 +11479,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -11497,10 +11487,10 @@
         <v>84</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11508,7 +11498,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11519,10 +11509,10 @@
         <v>84</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11530,7 +11520,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11541,10 +11531,10 @@
         <v>84</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11552,7 +11542,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11563,10 +11553,10 @@
         <v>84</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11574,7 +11564,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11585,10 +11575,10 @@
         <v>84</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11596,7 +11586,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>0</v>
@@ -11608,10 +11598,10 @@
         <v>84</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
